--- a/Database/Patienten_Zahnärzte_Kosten.xlsx
+++ b/Database/Patienten_Zahnärzte_Kosten.xlsx
@@ -1,353 +1,381 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Lehre\HS Worms\GUI-Programmierung\Praktikumsaufgaben\Aufgabe 3 Zahnärzte und Patienten\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F8D5D9-C2C1-4E8C-8136-5D57F8C2233A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="600" firstSheet="0" autoFilterDateGrouping="1" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Stamm-Patienten" sheetId="1" r:id="rId1"/>
-    <sheet name="Kosten und Behandlungsdauer" sheetId="3" r:id="rId2"/>
-    <sheet name="Zahnärzte" sheetId="2" r:id="rId3"/>
+    <sheet name="Stamm-Patienten" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Kosten und Behandlungsdauer" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="gesetzlich" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Zahnärzte" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="171027" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>Anzahl zu behandelnder Zähne</t>
+  </si>
+  <si>
+    <t>Filling Material</t>
+  </si>
+  <si>
+    <t>Krankenkasse</t>
+  </si>
+  <si>
+    <t>Problematik</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>höherwertig</t>
+  </si>
+  <si>
+    <t>gesetzlich</t>
+  </si>
+  <si>
+    <t>Teilkrone</t>
+  </si>
+  <si>
+    <t>höchstwertig</t>
+  </si>
+  <si>
+    <t>Wurzelbehandlung</t>
+  </si>
+  <si>
+    <t>Stamm-Patienten</t>
+  </si>
+  <si>
+    <t>ID/Passwort</t>
+  </si>
+  <si>
+    <t>Krankenkassenart</t>
+  </si>
+  <si>
+    <t>Dentale Problematik</t>
+  </si>
+  <si>
+    <t>Frau Meyer</t>
+  </si>
+  <si>
+    <t>P112</t>
+  </si>
+  <si>
+    <t>Karies klein</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Herr Krüger</t>
+  </si>
+  <si>
+    <t>P334</t>
+  </si>
+  <si>
+    <t>freiwillig gesetzlich</t>
+  </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
+    <t>Herr Meyer</t>
+  </si>
+  <si>
+    <t>P756</t>
+  </si>
+  <si>
+    <t>freiwliig gesetzlich</t>
+  </si>
+  <si>
+    <t>Herr Deister</t>
+  </si>
+  <si>
+    <t>P564</t>
+  </si>
+  <si>
+    <t>privat</t>
+  </si>
+  <si>
+    <t>Frau Müller</t>
+  </si>
+  <si>
+    <t>P711</t>
+  </si>
+  <si>
+    <t>Krone</t>
+  </si>
+  <si>
+    <t>Herr Schuster</t>
+  </si>
+  <si>
+    <t>P561</t>
+  </si>
+  <si>
+    <t>Frau Schulze</t>
+  </si>
+  <si>
+    <t>P991</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>Herr Meister</t>
+  </si>
+  <si>
+    <t>P196</t>
+  </si>
+  <si>
+    <t>Karies groß</t>
+  </si>
+  <si>
+    <t>Frau Riesenhuber</t>
+  </si>
+  <si>
+    <t>P556</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
-    <t>Patient</t>
-  </si>
-  <si>
-    <t>Frau Meyer</t>
-  </si>
-  <si>
-    <t>Krankenkassenart</t>
-  </si>
-  <si>
-    <t>gesetzlich</t>
-  </si>
-  <si>
-    <t>Dentale Problematik</t>
-  </si>
-  <si>
-    <t>Anzahl zu behandelnder Zähne</t>
-  </si>
-  <si>
-    <t>Herr Krüger</t>
-  </si>
-  <si>
-    <t>freiwillig gesetzlich</t>
-  </si>
-  <si>
-    <t>Herr Meyer</t>
-  </si>
-  <si>
-    <t>freiwliig gesetzlich</t>
-  </si>
-  <si>
-    <t>Herr Deister</t>
-  </si>
-  <si>
-    <t>privat</t>
-  </si>
-  <si>
-    <t>Teilkrone</t>
-  </si>
-  <si>
-    <t>Frau Müller</t>
-  </si>
-  <si>
-    <t>Krone</t>
-  </si>
-  <si>
-    <t>Herr Schuster</t>
-  </si>
-  <si>
-    <t>Frau Schulze</t>
-  </si>
-  <si>
-    <t>Herr Meister</t>
-  </si>
-  <si>
-    <t>P112</t>
-  </si>
-  <si>
-    <t>P334</t>
-  </si>
-  <si>
-    <t>P756</t>
-  </si>
-  <si>
-    <t>P564</t>
-  </si>
-  <si>
-    <t>P711</t>
-  </si>
-  <si>
-    <t>P561</t>
-  </si>
-  <si>
-    <t>P991</t>
-  </si>
-  <si>
-    <t>P196</t>
+    <t>Herr Schmidt</t>
+  </si>
+  <si>
+    <t>P856</t>
+  </si>
+  <si>
+    <t>Frau Michaelis</t>
+  </si>
+  <si>
+    <t>P214</t>
+  </si>
+  <si>
+    <t>Herr Ziegler</t>
+  </si>
+  <si>
+    <t>P779</t>
+  </si>
+  <si>
+    <t>Herr Maurer</t>
+  </si>
+  <si>
+    <t>P433</t>
+  </si>
+  <si>
+    <t>Frau Kossmeier</t>
+  </si>
+  <si>
+    <t>P913</t>
+  </si>
+  <si>
+    <t>Herr Kaufmann</t>
+  </si>
+  <si>
+    <t>P117</t>
+  </si>
+  <si>
+    <t>Herr Hansen</t>
+  </si>
+  <si>
+    <t>P555</t>
+  </si>
+  <si>
+    <t>Herr Freischulz</t>
+  </si>
+  <si>
+    <t>P915</t>
+  </si>
+  <si>
+    <t>Frau Meckernich</t>
+  </si>
+  <si>
+    <t>P999</t>
+  </si>
+  <si>
+    <t>Herr Liebermann</t>
+  </si>
+  <si>
+    <t>P848</t>
+  </si>
+  <si>
+    <t>Frau Koslowski</t>
+  </si>
+  <si>
+    <t>P616</t>
+  </si>
+  <si>
+    <t>Herr Werner</t>
+  </si>
+  <si>
+    <t>P441</t>
+  </si>
+  <si>
+    <t>Frau Ganzer</t>
+  </si>
+  <si>
+    <t>P963</t>
+  </si>
+  <si>
+    <t>Frau Heiermann</t>
+  </si>
+  <si>
+    <t>P283</t>
+  </si>
+  <si>
+    <t>Herr Gonzalez</t>
+  </si>
+  <si>
+    <t>P964</t>
+  </si>
+  <si>
+    <t>Frau Mertens</t>
+  </si>
+  <si>
+    <t>P242</t>
+  </si>
+  <si>
+    <t>Kosten</t>
+  </si>
+  <si>
+    <t>gesetzlicher Anteil</t>
+  </si>
+  <si>
+    <t>privater Anteil</t>
+  </si>
+  <si>
+    <t>Zeit (Stunden)</t>
+  </si>
+  <si>
+    <t>Füllmaterial</t>
+  </si>
+  <si>
+    <t>Kosten(€)</t>
+  </si>
+  <si>
+    <t>0,25</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>360</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>3100</t>
+  </si>
+  <si>
+    <t>2800</t>
+  </si>
+  <si>
+    <t>3600</t>
+  </si>
+  <si>
+    <t>4200</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>750</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>Zahnärzte</t>
   </si>
   <si>
     <t>Zahnarzt</t>
   </si>
   <si>
+    <t>behandelt</t>
+  </si>
+  <si>
+    <t>Behandlungszeiten</t>
+  </si>
+  <si>
+    <t>Herr Dr. Huber</t>
+  </si>
+  <si>
     <t>A111</t>
   </si>
   <si>
+    <t>nur privat</t>
+  </si>
+  <si>
+    <t>Mo-Fr: 8-12 Uhr und 14-16 Uhr</t>
+  </si>
+  <si>
+    <t>Herr Dr.Kraft</t>
+  </si>
+  <si>
     <t>A222</t>
   </si>
   <si>
+    <t>nur gesetzlich</t>
+  </si>
+  <si>
+    <t>Mo-Fr: 10-12 Uhr und 14-18 Uhr</t>
+  </si>
+  <si>
+    <t>Frau Dr. Winkel</t>
+  </si>
+  <si>
     <t>A333</t>
   </si>
   <si>
-    <t>behandelt</t>
-  </si>
-  <si>
-    <t>nur privat</t>
-  </si>
-  <si>
-    <t>nur gesetzlich</t>
-  </si>
-  <si>
-    <t>Frau Riesenhuber</t>
-  </si>
-  <si>
-    <t>P556</t>
-  </si>
-  <si>
-    <t>Herr Schmidt</t>
-  </si>
-  <si>
-    <t>P856</t>
-  </si>
-  <si>
     <t>privat und freiwillig gesetzlich</t>
   </si>
   <si>
-    <t>Frau Michaelis</t>
-  </si>
-  <si>
-    <t>P214</t>
-  </si>
-  <si>
-    <t>Herr Ziegler</t>
-  </si>
-  <si>
-    <t>P779</t>
-  </si>
-  <si>
-    <t>Herr Maurer</t>
-  </si>
-  <si>
-    <t>P433</t>
-  </si>
-  <si>
-    <t>Frau Kossmeier</t>
-  </si>
-  <si>
-    <t>P913</t>
-  </si>
-  <si>
-    <t>Herr Kaufmann</t>
-  </si>
-  <si>
-    <t>P117</t>
-  </si>
-  <si>
-    <t>Herr Hansen</t>
-  </si>
-  <si>
-    <t>P555</t>
-  </si>
-  <si>
-    <t>Herr Freischulz</t>
-  </si>
-  <si>
-    <t>P915</t>
-  </si>
-  <si>
-    <t>Frau Meckernich</t>
-  </si>
-  <si>
-    <t>P999</t>
-  </si>
-  <si>
-    <t>Herr Liebermann</t>
-  </si>
-  <si>
-    <t>P848</t>
-  </si>
-  <si>
-    <t>Frau Koslowski</t>
-  </si>
-  <si>
-    <t>P616</t>
-  </si>
-  <si>
-    <t>Herr Werner</t>
-  </si>
-  <si>
-    <t>P441</t>
-  </si>
-  <si>
-    <t>Frau Ganzer</t>
-  </si>
-  <si>
-    <t>P963</t>
-  </si>
-  <si>
-    <t>Zeit (Stunden)</t>
-  </si>
-  <si>
-    <t>Kosten</t>
-  </si>
-  <si>
-    <t>0,25</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>Füllmaterial</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>Herr Gonzalez</t>
-  </si>
-  <si>
-    <t>P964</t>
-  </si>
-  <si>
-    <t>Frau Mertens</t>
-  </si>
-  <si>
-    <t>P242</t>
-  </si>
-  <si>
-    <t>Zahnärzte</t>
-  </si>
-  <si>
-    <t>ID/Passwort</t>
-  </si>
-  <si>
-    <t>Stamm-Patienten</t>
-  </si>
-  <si>
-    <t>höherwertig</t>
-  </si>
-  <si>
-    <t>höchstwertig</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>480</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1800</t>
-  </si>
-  <si>
-    <t>3100</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>3600</t>
-  </si>
-  <si>
-    <t>4200</t>
-  </si>
-  <si>
-    <t>gesetzlicher Anteil</t>
-  </si>
-  <si>
-    <t>privater Anteil</t>
-  </si>
-  <si>
-    <t>Kosten(€)</t>
-  </si>
-  <si>
-    <t>Karies klein</t>
-  </si>
-  <si>
-    <t>Karies groß</t>
-  </si>
-  <si>
-    <t>Behandlungszeiten</t>
-  </si>
-  <si>
-    <t>Mo-Fr: 8-12 Uhr und 14-16 Uhr</t>
-  </si>
-  <si>
-    <t>Mo-Fr: 10-12 Uhr und 14-18 Uhr</t>
-  </si>
-  <si>
     <t>Mo-Fr: 8-14 Uhr</t>
   </si>
   <si>
+    <t>Herr Dr. Hausmann</t>
+  </si>
+  <si>
     <t>A444</t>
   </si>
   <si>
-    <t>Herr Dr. Huber</t>
-  </si>
-  <si>
-    <t>Herr Dr.Kraft</t>
-  </si>
-  <si>
-    <t>Frau Dr. Winkel</t>
-  </si>
-  <si>
-    <t>Herr Dr. Hausmann</t>
+    <t>gesetzlich und freiwillig gesetzlich</t>
+  </si>
+  <si>
+    <t>Mo: 9-12 Uhr und Fr 12-16 Uhr</t>
   </si>
   <si>
     <t>Frau Dr. Wurzel</t>
@@ -357,88 +385,129 @@
   </si>
   <si>
     <t>Di: 8-12 und Do: 12-18</t>
-  </si>
-  <si>
-    <t>Mo: 9-12 Uhr und Fr 12-16 Uhr</t>
-  </si>
-  <si>
-    <t>gesetzlich und freiwillig gesetzlich</t>
-  </si>
-  <si>
-    <t>Wurzelbehandlung</t>
-  </si>
-  <si>
-    <t>Frau Heiermann</t>
-  </si>
-  <si>
-    <t>P283</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>750</t>
-  </si>
-  <si>
-    <t>1200</t>
-  </si>
-  <si>
-    <t>1500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="13">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="16"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color theme="1"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
+    <fill>
+      <patternFill/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill/>
+    </fill>
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -608,132 +677,303 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color rgb="FF000000"/>
+      </left>
+      <right>
+        <color rgb="FF000000"/>
+      </right>
+      <top>
+        <color rgb="FF000000"/>
+      </top>
+      <bottom>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal>
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
+    <border diagonalDown="false" diagonalUp="false">
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" applyAlignment="1">
+      <alignment/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+  <cellXfs count="61">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="8" applyFont="1" fillId="4" applyFill="1" borderId="18" applyBorder="1" applyAlignment="1" xfId="0">
+      <alignment vertical="bottom" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="9" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" xfId="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="16" applyBorder="1" xfId="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="10" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment wrapText="1" vertical="center" horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="7" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="9" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="10" applyFont="1" fillId="2" applyFill="1" borderId="8" applyBorder="1" xfId="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="5" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="5" applyFill="1" borderId="7" applyBorder="1" xfId="2"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="11" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" xfId="2"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="11" applyBorder="1" applyAlignment="1" xfId="2">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="7" applyBorder="1" xfId="2"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="5" applyFill="1" borderId="8" applyBorder="1" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle xfId="2" builtinId="27" name="Schlecht"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -999,548 +1239,552 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K90"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B3:K90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection activeCell="G9" sqref="G9" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="23.08984375" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="7" width="39.08984375" customWidth="1"/>
-    <col min="8" max="8" width="12.36328125" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" customWidth="1"/>
-    <col min="11" max="11" width="22.6328125" customWidth="1"/>
-    <col min="12" max="12" width="30.453125" customWidth="1"/>
-    <col min="13" max="13" width="15.6328125" customWidth="1"/>
-    <col min="14" max="14" width="15.90625" customWidth="1"/>
+    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="17.54296875" customWidth="1" min="4" max="4"/>
+    <col width="23.08984375" customWidth="1" min="5" max="5"/>
+    <col width="31" customWidth="1" min="6" max="6"/>
+    <col width="39.08984375" customWidth="1" min="7" max="7"/>
+    <col width="12.36328125" customWidth="1" min="8" max="8"/>
+    <col width="20.453125" customWidth="1" min="9" max="9"/>
+    <col width="17.81640625" customWidth="1" min="10" max="10"/>
+    <col width="22.6328125" customWidth="1" min="11" max="11"/>
+    <col width="30.453125" customWidth="1" min="12" max="12"/>
+    <col width="15.6328125" customWidth="1" min="13" max="13"/>
+    <col width="15.90625" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:11" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C3" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-    </row>
-    <row r="4" spans="2:11" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" customHeight="1" ht="15"/>
+    <row r="3" customHeight="1" ht="21">
+      <c r="C3" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="60"/>
+    </row>
+    <row r="4" customHeight="1" ht="18">
       <c r="B4" s="5"/>
-      <c r="C4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>9</v>
+      <c r="C4" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>1</v>
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="2:11" ht="23.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" customHeight="1" ht="21">
       <c r="C5" s="6" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="2:11" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" customHeight="1" ht="24">
       <c r="C6" s="6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" ht="15">
+      <c r="C7" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C7" s="6" t="s">
-        <v>12</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" customHeight="1" ht="15">
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" customHeight="1" ht="15">
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" customHeight="1" ht="15">
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" customHeight="1" ht="15">
       <c r="C11" s="6" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" customHeight="1" ht="15">
       <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" customHeight="1" ht="15">
       <c r="C13" s="6" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" customHeight="1" ht="15">
       <c r="C14" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>1</v>
-      </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" customHeight="1" ht="15">
       <c r="C15" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="2:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" customHeight="1" ht="15">
       <c r="C16" s="6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" customHeight="1" ht="15">
       <c r="C17" s="6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" customHeight="1" ht="15">
       <c r="C18" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" customHeight="1" ht="15">
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>1</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" customHeight="1" ht="15">
       <c r="C20" s="6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" customHeight="1" ht="15">
       <c r="C21" s="6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" customHeight="1" ht="15">
       <c r="C22" s="6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" customHeight="1" ht="15">
       <c r="C23" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" customHeight="1" ht="15">
       <c r="C24" s="6" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" customHeight="1" ht="15">
       <c r="C25" s="6" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" customHeight="1" ht="15">
       <c r="C26" s="6" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" customHeight="1" ht="15">
       <c r="C27" s="6" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" customHeight="1" ht="15">
       <c r="C28" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="3:11" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" customHeight="1" ht="15">
       <c r="C29" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" customHeight="1" ht="15">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1551,182 +1795,182 @@
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="3:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-    </row>
-    <row r="39" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" customHeight="1" ht="15">
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+    </row>
+    <row r="32" customHeight="1" ht="15">
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+    </row>
+    <row r="33" customHeight="1" ht="15">
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+    </row>
+    <row r="34" customHeight="1" ht="15">
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+    </row>
+    <row r="35" customHeight="1" ht="15">
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+    </row>
+    <row r="36" customHeight="1" ht="42">
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+    </row>
+    <row r="37" customHeight="1" ht="15">
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+    </row>
+    <row r="38" customHeight="1" ht="15">
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+    </row>
+    <row r="39" customHeight="1" ht="15">
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+    </row>
+    <row r="40" customHeight="1" ht="15">
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+    </row>
+    <row r="41" customHeight="1" ht="15">
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+    </row>
+    <row r="42" customHeight="1" ht="15">
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+    </row>
+    <row r="43" customHeight="1" ht="15">
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+    </row>
+    <row r="44" customHeight="1" ht="15">
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+    </row>
+    <row r="45" customHeight="1" ht="15">
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+    </row>
+    <row r="46" customHeight="1" ht="15">
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+    </row>
+    <row r="47" customHeight="1" ht="15">
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+    </row>
+    <row r="48" customHeight="1" ht="15">
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+    </row>
+    <row r="49" customHeight="1" ht="15">
+      <c r="C49" s="31"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+    </row>
+    <row r="50" customHeight="1" ht="15">
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+    </row>
+    <row r="51" customHeight="1" ht="15">
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+    </row>
+    <row r="52" customHeight="1" ht="15">
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+    </row>
+    <row r="53" customHeight="1" ht="15">
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+    </row>
+    <row r="54" customHeight="1" ht="15">
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -1737,7 +1981,7 @@
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
     </row>
-    <row r="55" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" customHeight="1" ht="15">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -1748,7 +1992,7 @@
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
     </row>
-    <row r="56" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" customHeight="1" ht="15">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
@@ -1759,7 +2003,7 @@
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
     </row>
-    <row r="57" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" customHeight="1" ht="15">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
@@ -1770,7 +2014,7 @@
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
     </row>
-    <row r="58" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" customHeight="1" ht="15">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
@@ -1781,7 +2025,7 @@
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
     </row>
-    <row r="59" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" customHeight="1" ht="15">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -1792,7 +2036,7 @@
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
     </row>
-    <row r="60" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" customHeight="1" ht="15">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -1803,7 +2047,7 @@
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
     </row>
-    <row r="61" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" customHeight="1" ht="15">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
@@ -1814,7 +2058,7 @@
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
     </row>
-    <row r="62" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" customHeight="1" ht="15">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -1825,7 +2069,7 @@
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
     </row>
-    <row r="63" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" customHeight="1" ht="15">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -1836,7 +2080,7 @@
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
     </row>
-    <row r="64" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" customHeight="1" ht="15">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -1847,7 +2091,7 @@
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
     </row>
-    <row r="65" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" customHeight="1" ht="15">
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -1858,7 +2102,7 @@
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
     </row>
-    <row r="66" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="66" customHeight="1" ht="15">
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -1869,7 +2113,7 @@
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
     </row>
-    <row r="67" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" customHeight="1" ht="15">
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -1880,7 +2124,7 @@
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
     </row>
-    <row r="68" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" customHeight="1" ht="15">
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -1891,7 +2135,7 @@
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
     </row>
-    <row r="69" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" customHeight="1" ht="15">
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -1902,7 +2146,7 @@
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
     </row>
-    <row r="70" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" customHeight="1" ht="15">
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -1913,7 +2157,7 @@
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
     </row>
-    <row r="71" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" customHeight="1" ht="15">
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -1924,7 +2168,7 @@
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
     </row>
-    <row r="72" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" customHeight="1" ht="15">
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
@@ -1935,7 +2179,7 @@
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
     </row>
-    <row r="73" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" customHeight="1" ht="15">
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
@@ -1946,7 +2190,7 @@
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
     </row>
-    <row r="74" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" customHeight="1" ht="15">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -1957,7 +2201,7 @@
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
     </row>
-    <row r="75" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" customHeight="1" ht="15">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
@@ -1968,7 +2212,7 @@
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
     </row>
-    <row r="76" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" customHeight="1" ht="15">
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
@@ -1979,7 +2223,7 @@
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
     </row>
-    <row r="77" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" customHeight="1" ht="15">
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
@@ -1990,7 +2234,7 @@
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
     </row>
-    <row r="78" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="78" customHeight="1" ht="15">
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
@@ -2001,7 +2245,7 @@
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
     </row>
-    <row r="79" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" customHeight="1" ht="15">
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
@@ -2012,7 +2256,7 @@
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
     </row>
-    <row r="80" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" customHeight="1" ht="15">
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
@@ -2023,7 +2267,7 @@
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
     </row>
-    <row r="81" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" customHeight="1" ht="15">
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
@@ -2034,7 +2278,7 @@
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
     </row>
-    <row r="82" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" customHeight="1" ht="15">
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
@@ -2045,7 +2289,7 @@
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
     </row>
-    <row r="83" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" customHeight="1" ht="15">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
@@ -2056,7 +2300,7 @@
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
     </row>
-    <row r="84" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" customHeight="1" ht="15">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
@@ -2067,7 +2311,7 @@
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
     </row>
-    <row r="85" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" customHeight="1" ht="15">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -2078,7 +2322,7 @@
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
     </row>
-    <row r="86" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" customHeight="1" ht="15">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -2089,7 +2333,7 @@
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
     </row>
-    <row r="87" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" customHeight="1" ht="15">
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
@@ -2100,7 +2344,7 @@
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
     </row>
-    <row r="88" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" customHeight="1" ht="15">
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
@@ -2111,7 +2355,7 @@
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
     </row>
-    <row r="89" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" customHeight="1" ht="15">
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
@@ -2122,7 +2366,7 @@
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
     </row>
-    <row r="90" spans="3:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="90" customHeight="1" ht="15">
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
@@ -2138,71 +2382,75 @@
     <mergeCell ref="C3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="200" verticalDpi="200"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC2CBEF-96E7-400C-A5D5-CB582BAFA2F8}">
-  <dimension ref="B2:G19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B3:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="25.08984375" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.7265625" customWidth="1"/>
-    <col min="6" max="6" width="26.1796875" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" customWidth="1"/>
+    <col width="25.08984375" customWidth="1" min="2" max="2"/>
+    <col width="14.90625" customWidth="1" min="3" max="3"/>
+    <col width="18" customWidth="1" min="4" max="4"/>
+    <col width="16.7265625" customWidth="1" min="5" max="5"/>
+    <col width="26.1796875" customWidth="1" min="6" max="6"/>
+    <col width="23.54296875" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="2:7" ht="21.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G3" s="26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" customHeight="1" ht="15"/>
+    <row r="3" customHeight="1" ht="21">
+      <c r="B3" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" ht="15">
       <c r="B4" s="33" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F4" s="35"/>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" customHeight="1" ht="15">
       <c r="B5" s="14" t="s">
-        <v>96</v>
+        <v>17</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D5" s="31" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="F5" s="32">
         <v>0.8</v>
@@ -2211,16 +2459,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" customHeight="1" ht="15">
       <c r="B6" s="14"/>
       <c r="C6" s="31" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F6" s="32">
         <v>0.7</v>
@@ -2229,16 +2477,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" customHeight="1" ht="15">
       <c r="B7" s="15"/>
       <c r="C7" s="16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7" s="28">
         <v>0.5</v>
@@ -2247,18 +2495,18 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" customHeight="1" ht="15">
       <c r="B8" s="14" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="F8" s="32">
         <v>0.8</v>
@@ -2267,16 +2515,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" customHeight="1" ht="15">
       <c r="B9" s="14"/>
       <c r="C9" s="31" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E9" s="31" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F9" s="32">
         <v>0.7</v>
@@ -2285,16 +2533,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" customHeight="1" ht="15">
       <c r="B10" s="15"/>
       <c r="C10" s="16" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F10" s="28">
         <v>0.5</v>
@@ -2303,18 +2551,18 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="11" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" customHeight="1" ht="15">
       <c r="B11" s="14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F11" s="32">
         <v>0.8</v>
@@ -2323,16 +2571,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" customHeight="1" ht="15">
       <c r="B12" s="14"/>
       <c r="C12" s="31" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E12" s="31" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F12" s="32">
         <v>0.7</v>
@@ -2341,16 +2589,16 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" customHeight="1" ht="15">
       <c r="B13" s="15"/>
       <c r="C13" s="16" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F13" s="28">
         <v>0.3</v>
@@ -2359,18 +2607,18 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" customHeight="1" ht="15">
       <c r="B14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>1</v>
-      </c>
       <c r="D14" s="31" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F14" s="32">
         <v>0.7</v>
@@ -2379,16 +2627,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" customHeight="1" ht="15">
       <c r="B15" s="14"/>
       <c r="C15" s="31" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D15" s="31" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E15" s="31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F15" s="32">
         <v>0.5</v>
@@ -2397,16 +2645,16 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="16" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" customHeight="1" ht="15">
       <c r="B16" s="15"/>
       <c r="C16" s="16" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F16" s="28">
         <v>0.25</v>
@@ -2415,18 +2663,18 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="17" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" customHeight="1" ht="15">
       <c r="B17" s="14" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E17" s="31" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="F17" s="32">
         <v>0.9</v>
@@ -2435,16 +2683,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" customHeight="1" ht="15">
       <c r="B18" s="14"/>
       <c r="C18" s="31" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D18" s="31" t="s">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="E18" s="31" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="F18" s="32">
         <v>0.7</v>
@@ -2453,16 +2701,16 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" customHeight="1" ht="15">
       <c r="B19" s="15"/>
       <c r="C19" s="16" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>83</v>
+        <v>9</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F19" s="28">
         <v>0.45</v>
@@ -2475,125 +2723,206 @@
   <mergeCells count="1">
     <mergeCell ref="B3:E3"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFAFFC1-017E-4500-8EDC-D21EE3DC169D}">
-  <dimension ref="B1:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1" tabSelected="1">
+      <selection activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col width="25.7109375" customWidth="1" min="1" max="1"/>
+    <col width="25.7109375" customWidth="1" min="2" max="2"/>
+    <col width="25.7109375" customWidth="1" min="3" max="3"/>
+    <col width="25.7109375" customWidth="1" min="4" max="4"/>
+    <col width="25.7109375" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="43">
+        <v>2</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" s="44">
+      <c r="A3" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="44">
+        <v>2</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="B2:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B2" sqref="B2:E2" activeCellId="0"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.81640625" customWidth="1"/>
-    <col min="4" max="4" width="24.1796875" customWidth="1"/>
-    <col min="5" max="5" width="44.08984375" customWidth="1"/>
+    <col width="21.7265625" customWidth="1" min="2" max="2"/>
+    <col width="18.81640625" customWidth="1" min="3" max="3"/>
+    <col width="24.1796875" customWidth="1" min="4" max="4"/>
+    <col width="44.08984375" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:5" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-    </row>
-    <row r="3" spans="2:5" ht="56" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" customHeight="1" ht="15"/>
+    <row r="2" customHeight="1" ht="21">
+      <c r="B2" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="54"/>
+    </row>
+    <row r="3" customHeight="1" ht="54">
       <c r="B3" s="17" t="s">
-        <v>30</v>
+        <v>101</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="18" t="s">
+    </row>
+    <row r="4" customHeight="1" ht="45">
+      <c r="B4" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="47" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="18" t="s">
+      <c r="C4" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" ht="46" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="18" t="s">
+      <c r="D4" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="18" t="s">
+      <c r="E4" s="30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" ht="45">
+      <c r="B5" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" customHeight="1" ht="45">
+      <c r="B6" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="45">
+      <c r="B7" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" ht="39">
       <c r="B8" s="30" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.787401575" bottom="0.787401575" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/Database/Patienten_Zahnärzte_Kosten.xlsx
+++ b/Database/Patienten_Zahnärzte_Kosten.xlsx
@@ -1672,9 +1672,21 @@
       <c r="K29" s="2" t="n"/>
     </row>
     <row r="30" ht="15" customHeight="1">
-      <c r="C30" s="2" t="n"/>
-      <c r="D30" s="2" t="n"/>
-      <c r="E30" s="2" t="n"/>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>freiwillig gesetzlich</t>
+        </is>
+      </c>
       <c r="F30" s="2" t="n"/>
       <c r="G30" s="2" t="n"/>
       <c r="H30" s="2" t="n"/>
@@ -1683,9 +1695,21 @@
       <c r="K30" s="2" t="n"/>
     </row>
     <row r="31" ht="15" customHeight="1">
-      <c r="C31" s="31" t="n"/>
-      <c r="D31" s="31" t="n"/>
-      <c r="E31" s="31" t="n"/>
+      <c r="C31" s="31" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="D31" s="31" t="inlineStr">
+        <is>
+          <t>s</t>
+        </is>
+      </c>
+      <c r="E31" s="31" t="inlineStr">
+        <is>
+          <t>freiwillig gesetzlich</t>
+        </is>
+      </c>
       <c r="F31" s="31" t="n"/>
       <c r="G31" s="31" t="n"/>
       <c r="H31" s="31" t="n"/>
@@ -1694,39 +1718,136 @@
       <c r="K31" s="31" t="n"/>
     </row>
     <row r="32" ht="15" customHeight="1">
-      <c r="C32" s="31" t="n"/>
-      <c r="D32" s="31" t="n"/>
-      <c r="E32" s="31" t="n"/>
-      <c r="F32" s="31" t="n"/>
-      <c r="G32" s="31" t="n"/>
+      <c r="C32" s="31" t="inlineStr">
+        <is>
+          <t>Ericka</t>
+        </is>
+      </c>
+      <c r="D32" s="31" t="inlineStr">
+        <is>
+          <t>kala</t>
+        </is>
+      </c>
+      <c r="E32" s="31" t="inlineStr">
+        <is>
+          <t>gesetzlich</t>
+        </is>
+      </c>
+      <c r="F32" s="31" t="inlineStr">
+        <is>
+          <t>Karies groß</t>
+        </is>
+      </c>
+      <c r="G32" s="31" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
       <c r="H32" s="31" t="n"/>
       <c r="I32" s="31" t="n"/>
       <c r="J32" s="31" t="n"/>
       <c r="K32" s="31" t="n"/>
     </row>
     <row r="33" ht="15" customHeight="1">
-      <c r="G33" s="31" t="n"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>erika</t>
+        </is>
+      </c>
+      <c r="G33" s="31" t="inlineStr"/>
       <c r="H33" s="31" t="n"/>
       <c r="I33" s="31" t="n"/>
       <c r="J33" s="31" t="n"/>
       <c r="K33" s="31" t="n"/>
     </row>
     <row r="34" ht="15" customHeight="1">
-      <c r="G34" s="31" t="n"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Theodore</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>kala</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>gesetzlich</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Teilkrone, Teilkrone</t>
+        </is>
+      </c>
+      <c r="G34" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H34" s="31" t="n"/>
       <c r="I34" s="31" t="n"/>
       <c r="J34" s="31" t="n"/>
       <c r="K34" s="31" t="n"/>
     </row>
     <row r="35" ht="15" customHeight="1">
-      <c r="G35" s="31" t="n"/>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Theodore2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>kala</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>gesetzlich</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Teilkrone</t>
+        </is>
+      </c>
+      <c r="G35" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H35" s="31" t="n"/>
       <c r="I35" s="31" t="n"/>
       <c r="J35" s="31" t="n"/>
       <c r="K35" s="31" t="n"/>
     </row>
     <row r="36" ht="42" customHeight="1">
-      <c r="G36" s="31" t="n"/>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Theodore benji</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>kala</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>gesetzlich</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Teilkrone</t>
+        </is>
+      </c>
+      <c r="G36" s="31" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="H36" s="31" t="n"/>
     </row>
     <row r="37" ht="15" customHeight="1">
@@ -2863,7 +2984,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B2:E8"/>
+  <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" activeCellId="0" sqref="B2:E2"/>
@@ -3020,6 +3141,23 @@
         </is>
       </c>
     </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>theodore</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>theodore</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>freiwillig gesetzlich</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:E2"/>
